--- a/leetcode analysis.xlsx
+++ b/leetcode analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1120,14 +1120,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1136,7 +1136,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1145,7 +1145,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1193,27 +1193,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -1221,6 +1292,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表格2" displayName="表格2" ref="A1:L142" totalsRowShown="0">
   <autoFilter ref="A1:L142"/>
+  <sortState ref="A2:L142">
+    <sortCondition ref="B1:B142"/>
+  </sortState>
   <tableColumns count="12">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Dif"/>
@@ -1563,24 +1637,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="K142" sqref="K142"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.5" customWidth="1"/>
-    <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1623,10 +1697,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>290</v>
@@ -1634,164 +1708,164 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>290</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>292</v>
+      <c r="D6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I6" t="s">
+        <v>292</v>
+      </c>
+      <c r="J6" t="s">
+        <v>291</v>
+      </c>
+      <c r="K6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L6" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>304</v>
       </c>
       <c r="D8" t="s">
         <v>292</v>
       </c>
-      <c r="K8" t="s">
-        <v>294</v>
+      <c r="J8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9" t="s">
+        <v>307</v>
+      </c>
       <c r="F9" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D10" t="s">
+        <v>292</v>
+      </c>
+      <c r="I10" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>292</v>
       </c>
-      <c r="L11" t="s">
-        <v>296</v>
+      <c r="J11" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B12">
         <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>292</v>
-      </c>
-      <c r="I12" t="s">
-        <v>292</v>
-      </c>
-      <c r="J12" t="s">
-        <v>291</v>
-      </c>
-      <c r="K12" t="s">
-        <v>299</v>
-      </c>
-      <c r="L12" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D13" t="s">
-        <v>292</v>
-      </c>
-      <c r="I13" t="s">
-        <v>292</v>
-      </c>
-      <c r="J13" t="s">
-        <v>292</v>
-      </c>
-      <c r="L13" t="s">
-        <v>301</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>320</v>
       </c>
       <c r="D14" t="s">
         <v>292</v>
@@ -1799,342 +1873,195 @@
       <c r="I14" t="s">
         <v>292</v>
       </c>
-      <c r="J14" t="s">
-        <v>292</v>
-      </c>
       <c r="K14" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>292</v>
-      </c>
-      <c r="I15" t="s">
-        <v>292</v>
-      </c>
-      <c r="K15" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>304</v>
-      </c>
-      <c r="D16" t="s">
-        <v>292</v>
-      </c>
-      <c r="J16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>304</v>
-      </c>
-      <c r="D17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F17" t="s">
+        <v>292</v>
+      </c>
+      <c r="H17" t="s">
         <v>292</v>
       </c>
       <c r="J17" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>304</v>
-      </c>
-      <c r="D18" t="s">
-        <v>292</v>
-      </c>
-      <c r="J18" t="s">
-        <v>292</v>
-      </c>
-      <c r="L18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>305</v>
-      </c>
-      <c r="F19" t="s">
-        <v>292</v>
-      </c>
-      <c r="J19" t="s">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
-        <v>307</v>
-      </c>
-      <c r="F20" t="s">
-        <v>292</v>
-      </c>
-      <c r="H20" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>309</v>
-      </c>
-      <c r="G21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>292</v>
-      </c>
-      <c r="I22" t="s">
-        <v>292</v>
-      </c>
-      <c r="K22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>292</v>
-      </c>
-      <c r="I23" t="s">
-        <v>292</v>
-      </c>
-      <c r="K23" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>292</v>
-      </c>
-      <c r="I24" t="s">
-        <v>292</v>
-      </c>
-      <c r="K24" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>292</v>
-      </c>
-      <c r="F25" t="s">
-        <v>292</v>
-      </c>
-      <c r="I25" t="s">
-        <v>292</v>
-      </c>
-      <c r="K25" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>292</v>
-      </c>
-      <c r="I26" t="s">
-        <v>292</v>
-      </c>
-      <c r="K26" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>306</v>
-      </c>
-      <c r="F27" t="s">
-        <v>292</v>
-      </c>
-      <c r="J27" t="s">
-        <v>292</v>
-      </c>
-      <c r="K27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
-        <v>292</v>
-      </c>
-      <c r="I28" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="F28" t="s">
+        <v>292</v>
+      </c>
+      <c r="H28" t="s">
+        <v>292</v>
+      </c>
+      <c r="J28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>292</v>
-      </c>
-      <c r="I29" t="s">
-        <v>292</v>
-      </c>
-      <c r="K29" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>315</v>
-      </c>
-      <c r="E30" t="s">
-        <v>292</v>
-      </c>
-      <c r="K30" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
-        <v>292</v>
-      </c>
-      <c r="J31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>292</v>
-      </c>
-      <c r="J32" t="s">
-        <v>292</v>
-      </c>
-      <c r="K32" t="s">
-        <v>317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>292</v>
-      </c>
-      <c r="H33" t="s">
-        <v>292</v>
-      </c>
-      <c r="J33" t="s">
-        <v>292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2142,24 +2069,18 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>292</v>
-      </c>
-      <c r="H35" t="s">
-        <v>292</v>
-      </c>
-      <c r="J35" t="s">
-        <v>292</v>
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2167,118 +2088,55 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>319</v>
-      </c>
-      <c r="F37" t="s">
-        <v>292</v>
-      </c>
-      <c r="J37" t="s">
-        <v>292</v>
-      </c>
-      <c r="K37" t="s">
-        <v>318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="B38">
         <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>320</v>
-      </c>
-      <c r="D38" t="s">
-        <v>292</v>
-      </c>
-      <c r="I38" t="s">
-        <v>292</v>
-      </c>
-      <c r="K38" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>322</v>
-      </c>
-      <c r="F39" t="s">
-        <v>292</v>
-      </c>
-      <c r="J39" t="s">
-        <v>292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>304</v>
-      </c>
-      <c r="F40" t="s">
-        <v>292</v>
-      </c>
-      <c r="I40" t="s">
-        <v>292</v>
-      </c>
-      <c r="K40" t="s">
-        <v>311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>306</v>
-      </c>
-      <c r="F41" t="s">
-        <v>292</v>
-      </c>
-      <c r="J41" t="s">
-        <v>292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>306</v>
-      </c>
-      <c r="F42" t="s">
-        <v>292</v>
-      </c>
-      <c r="J42" t="s">
-        <v>292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2286,7 +2144,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2294,535 +2152,472 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="B45">
         <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>306</v>
-      </c>
-      <c r="F45" t="s">
-        <v>292</v>
-      </c>
-      <c r="H45" t="s">
-        <v>292</v>
-      </c>
-      <c r="J45" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>306</v>
-      </c>
-      <c r="F46" t="s">
-        <v>292</v>
-      </c>
-      <c r="H46" t="s">
-        <v>292</v>
-      </c>
-      <c r="J46" t="s">
-        <v>292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>306</v>
-      </c>
-      <c r="F47" t="s">
-        <v>292</v>
-      </c>
-      <c r="J47" t="s">
-        <v>292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="K49" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="C49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="C51" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>260</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>267</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>292</v>
+      </c>
+      <c r="I59" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>269</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>292</v>
+      </c>
+      <c r="I61" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>278</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>281</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>282</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>293</v>
+      </c>
+      <c r="F72" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>292</v>
+      </c>
+      <c r="K73" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>292</v>
+      </c>
+      <c r="L74" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" t="s">
+        <v>292</v>
+      </c>
+      <c r="I75" t="s">
+        <v>292</v>
+      </c>
+      <c r="J75" t="s">
+        <v>292</v>
+      </c>
+      <c r="L75" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>292</v>
+      </c>
+      <c r="I76" t="s">
+        <v>292</v>
+      </c>
+      <c r="J76" t="s">
+        <v>292</v>
+      </c>
+      <c r="K76" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>292</v>
+      </c>
+      <c r="I77" t="s">
+        <v>292</v>
+      </c>
+      <c r="K77" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>304</v>
+      </c>
+      <c r="D78" t="s">
+        <v>292</v>
+      </c>
+      <c r="J78" t="s">
+        <v>292</v>
+      </c>
+      <c r="L78" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>305</v>
+      </c>
+      <c r="F79" t="s">
+        <v>292</v>
+      </c>
+      <c r="J79" t="s">
+        <v>292</v>
+      </c>
+      <c r="K79" t="s">
         <v>306</v>
       </c>
-      <c r="F52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J52" t="s">
-        <v>292</v>
-      </c>
-      <c r="L52" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" t="s">
-        <v>200</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>293</v>
-      </c>
-      <c r="F53" t="s">
-        <v>292</v>
-      </c>
-      <c r="J53" t="s">
-        <v>292</v>
-      </c>
-      <c r="K53" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" t="s">
-        <v>201</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="F54" t="s">
-        <v>292</v>
-      </c>
-      <c r="J54" t="s">
-        <v>292</v>
-      </c>
-      <c r="K54" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" t="s">
-        <v>202</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" t="s">
-        <v>203</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s">
-        <v>304</v>
-      </c>
-      <c r="F56" t="s">
-        <v>292</v>
-      </c>
-      <c r="J56" t="s">
-        <v>292</v>
-      </c>
-      <c r="K56" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" t="s">
-        <v>204</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" t="s">
-        <v>205</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="F58" t="s">
-        <v>292</v>
-      </c>
-      <c r="J58" t="s">
-        <v>292</v>
-      </c>
-      <c r="K58" t="s">
-        <v>327</v>
-      </c>
-      <c r="L58" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" t="s">
-        <v>206</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" t="s">
-        <v>207</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>306</v>
-      </c>
-      <c r="F60" t="s">
-        <v>292</v>
-      </c>
-      <c r="J60" t="s">
-        <v>292</v>
-      </c>
-      <c r="K60" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" t="s">
-        <v>208</v>
-      </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="C61" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" t="s">
-        <v>209</v>
-      </c>
-      <c r="B62">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>329</v>
-      </c>
-      <c r="E62" t="s">
-        <v>292</v>
-      </c>
-      <c r="J62" t="s">
-        <v>292</v>
-      </c>
-      <c r="K62" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" t="s">
-        <v>210</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" t="s">
-        <v>211</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" t="s">
-        <v>212</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" t="s">
-        <v>213</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="F66" t="s">
-        <v>292</v>
-      </c>
-      <c r="H66" t="s">
-        <v>292</v>
-      </c>
-      <c r="J66" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" t="s">
-        <v>214</v>
-      </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
-        <v>331</v>
-      </c>
-      <c r="F67" t="s">
-        <v>292</v>
-      </c>
-      <c r="J67" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" t="s">
-        <v>215</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" t="s">
-        <v>216</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" t="s">
-        <v>217</v>
-      </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>306</v>
-      </c>
-      <c r="F70" t="s">
-        <v>292</v>
-      </c>
-      <c r="J70" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" t="s">
-        <v>218</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s">
-        <v>306</v>
-      </c>
-      <c r="F71" t="s">
-        <v>292</v>
-      </c>
-      <c r="I71" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" t="s">
-        <v>219</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-      <c r="F72" t="s">
-        <v>292</v>
-      </c>
-      <c r="H72" t="s">
-        <v>292</v>
-      </c>
-      <c r="I72" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" t="s">
-        <v>220</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="F73" t="s">
-        <v>292</v>
-      </c>
-      <c r="H73" t="s">
-        <v>292</v>
-      </c>
-      <c r="J73" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" t="s">
-        <v>221</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" t="s">
-        <v>222</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" t="s">
-        <v>223</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" t="s">
-        <v>224</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" t="s">
-        <v>225</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="K78" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" t="s">
-        <v>226</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s">
-        <v>292</v>
-      </c>
-      <c r="I79" t="s">
-        <v>292</v>
-      </c>
-      <c r="K79" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
-      <c r="F80" t="s">
-        <v>292</v>
-      </c>
-      <c r="I80" t="s">
-        <v>292</v>
-      </c>
-      <c r="K80" t="s">
-        <v>311</v>
+      <c r="C80" t="s">
+        <v>309</v>
+      </c>
+      <c r="G80" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
-      <c r="C81" t="s">
-        <v>306</v>
-      </c>
       <c r="F81" t="s">
         <v>292</v>
       </c>
-      <c r="J81" t="s">
-        <v>292</v>
+      <c r="I81" t="s">
+        <v>292</v>
+      </c>
+      <c r="K81" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>292</v>
+      </c>
+      <c r="I82" t="s">
+        <v>292</v>
+      </c>
+      <c r="K82" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B83">
         <v>2</v>
       </c>
-      <c r="D83" t="s">
-        <v>292</v>
-      </c>
-      <c r="J83" t="s">
-        <v>292</v>
+      <c r="F83" t="s">
+        <v>292</v>
+      </c>
+      <c r="I83" t="s">
+        <v>292</v>
+      </c>
+      <c r="K83" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -2830,81 +2625,132 @@
       <c r="D84" t="s">
         <v>292</v>
       </c>
-      <c r="J84" t="s">
-        <v>292</v>
+      <c r="F84" t="s">
+        <v>292</v>
+      </c>
+      <c r="I84" t="s">
+        <v>292</v>
+      </c>
+      <c r="K84" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>292</v>
+      </c>
+      <c r="I85" t="s">
+        <v>292</v>
+      </c>
+      <c r="K85" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
-      <c r="D86" t="s">
+      <c r="C86" t="s">
+        <v>306</v>
+      </c>
+      <c r="F86" t="s">
         <v>292</v>
       </c>
       <c r="J86" t="s">
         <v>292</v>
       </c>
       <c r="K86" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="F87" t="s">
-        <v>292</v>
-      </c>
-      <c r="J87" t="s">
-        <v>292</v>
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>292</v>
+      </c>
+      <c r="I87" t="s">
+        <v>292</v>
+      </c>
+      <c r="K87" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>315</v>
+      </c>
+      <c r="E88" t="s">
+        <v>292</v>
+      </c>
+      <c r="K88" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>292</v>
+      </c>
+      <c r="J89" t="s">
+        <v>292</v>
+      </c>
+      <c r="K89" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>292</v>
+      </c>
+      <c r="H90" t="s">
+        <v>292</v>
+      </c>
+      <c r="J90" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
+        <v>292</v>
+      </c>
+      <c r="H91" t="s">
         <v>292</v>
       </c>
       <c r="J91" t="s">
@@ -2913,34 +2759,70 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>319</v>
+      </c>
+      <c r="F92" t="s">
+        <v>292</v>
+      </c>
+      <c r="J92" t="s">
+        <v>292</v>
+      </c>
+      <c r="K92" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>322</v>
+      </c>
+      <c r="F93" t="s">
+        <v>292</v>
+      </c>
+      <c r="J93" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>304</v>
+      </c>
+      <c r="F94" t="s">
+        <v>292</v>
+      </c>
+      <c r="I94" t="s">
+        <v>292</v>
+      </c>
+      <c r="K94" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="B95">
         <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>306</v>
       </c>
       <c r="F95" t="s">
         <v>292</v>
@@ -2951,132 +2833,195 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>306</v>
+      </c>
+      <c r="F96" t="s">
+        <v>292</v>
+      </c>
+      <c r="J96" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
-      <c r="E97" t="s">
-        <v>292</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="C97" t="s">
+        <v>306</v>
+      </c>
+      <c r="F97" t="s">
+        <v>292</v>
+      </c>
+      <c r="H97" t="s">
+        <v>292</v>
+      </c>
+      <c r="J97" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
-      <c r="E98" t="s">
-        <v>292</v>
-      </c>
-      <c r="I98" t="s">
+      <c r="C98" t="s">
+        <v>306</v>
+      </c>
+      <c r="F98" t="s">
+        <v>292</v>
+      </c>
+      <c r="J98" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>306</v>
+      </c>
+      <c r="F99" t="s">
+        <v>292</v>
+      </c>
+      <c r="J99" t="s">
+        <v>292</v>
+      </c>
+      <c r="L99" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>293</v>
+      </c>
+      <c r="F100" t="s">
+        <v>292</v>
+      </c>
+      <c r="J100" t="s">
+        <v>292</v>
+      </c>
+      <c r="K100" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>304</v>
+      </c>
+      <c r="F101" t="s">
+        <v>292</v>
+      </c>
+      <c r="J101" t="s">
+        <v>292</v>
+      </c>
+      <c r="K101" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>292</v>
+      </c>
+      <c r="J102" t="s">
+        <v>292</v>
+      </c>
+      <c r="K102" t="s">
+        <v>327</v>
+      </c>
+      <c r="L102" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
+      <c r="C103" t="s">
+        <v>306</v>
+      </c>
       <c r="F103" t="s">
         <v>292</v>
       </c>
       <c r="J103" t="s">
         <v>292</v>
+      </c>
+      <c r="K103" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="B104">
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>333</v>
-      </c>
-      <c r="F104" t="s">
-        <v>292</v>
-      </c>
-      <c r="J104" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F105" t="s">
         <v>292</v>
       </c>
       <c r="J105" t="s">
         <v>292</v>
-      </c>
-      <c r="L105" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="F106" t="s">
         <v>292</v>
@@ -3087,276 +3032,354 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>333</v>
+        <v>306</v>
+      </c>
+      <c r="F107" t="s">
+        <v>292</v>
+      </c>
+      <c r="I107" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F108" t="s">
+        <v>292</v>
+      </c>
+      <c r="I108" t="s">
+        <v>292</v>
+      </c>
+      <c r="K108" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109" t="s">
-        <v>315</v>
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>292</v>
+      </c>
+      <c r="I109" t="s">
+        <v>292</v>
+      </c>
+      <c r="K109" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C110" t="s">
+        <v>306</v>
+      </c>
+      <c r="F110" t="s">
+        <v>292</v>
+      </c>
+      <c r="J110" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>292</v>
+      </c>
+      <c r="J111" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
+        <v>231</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>292</v>
+      </c>
+      <c r="J112" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" t="s">
+        <v>233</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>292</v>
+      </c>
+      <c r="J113" t="s">
+        <v>292</v>
+      </c>
+      <c r="K113" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" t="s">
+        <v>238</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>292</v>
+      </c>
+      <c r="J114" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>292</v>
+      </c>
+      <c r="J115" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" t="s">
+        <v>244</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>292</v>
+      </c>
+      <c r="I116" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" t="s">
+        <v>245</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>292</v>
+      </c>
+      <c r="I117" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" t="s">
+        <v>250</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>292</v>
+      </c>
+      <c r="J118" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" t="s">
+        <v>251</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>333</v>
+      </c>
+      <c r="F119" t="s">
+        <v>292</v>
+      </c>
+      <c r="J119" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" t="s">
+        <v>252</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>333</v>
+      </c>
+      <c r="F120" t="s">
+        <v>292</v>
+      </c>
+      <c r="J120" t="s">
+        <v>292</v>
+      </c>
+      <c r="L120" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" t="s">
+        <v>253</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>333</v>
+      </c>
+      <c r="F121" t="s">
+        <v>292</v>
+      </c>
+      <c r="J121" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" t="s">
         <v>259</v>
       </c>
-      <c r="B112">
-        <v>2</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
-      <c r="A113" t="s">
-        <v>260</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" t="s">
+    <row r="123" spans="1:12">
+      <c r="A123" t="s">
         <v>261</v>
       </c>
-      <c r="B114">
-        <v>2</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
         <v>334</v>
       </c>
-      <c r="E114" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" t="s">
-        <v>262</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" t="s">
-        <v>263</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" t="s">
+      <c r="E123" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" t="s">
         <v>288</v>
       </c>
-      <c r="B117">
-        <v>2</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" t="s">
-        <v>264</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" t="s">
-        <v>289</v>
-      </c>
-      <c r="B119">
-        <v>3</v>
-      </c>
-      <c r="C119" t="s">
-        <v>337</v>
-      </c>
-      <c r="F119" t="s">
-        <v>292</v>
-      </c>
-      <c r="J119" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" t="s">
+    <row r="125" spans="1:12">
+      <c r="A125" t="s">
         <v>265</v>
       </c>
-      <c r="B120">
-        <v>2</v>
-      </c>
-      <c r="F120" t="s">
-        <v>292</v>
-      </c>
-      <c r="J120" t="s">
-        <v>292</v>
-      </c>
-      <c r="K120" t="s">
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="F125" t="s">
+        <v>292</v>
+      </c>
+      <c r="J125" t="s">
+        <v>292</v>
+      </c>
+      <c r="K125" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
-      <c r="A121" t="s">
+    <row r="126" spans="1:12">
+      <c r="A126" t="s">
         <v>266</v>
       </c>
-      <c r="B121">
-        <v>2</v>
-      </c>
-      <c r="F121" t="s">
-        <v>292</v>
-      </c>
-      <c r="I121" t="s">
-        <v>292</v>
-      </c>
-      <c r="K121" t="s">
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="F126" t="s">
+        <v>292</v>
+      </c>
+      <c r="I126" t="s">
+        <v>292</v>
+      </c>
+      <c r="K126" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
-      <c r="A122" t="s">
-        <v>267</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="C122" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" t="s">
-        <v>268</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="D123" t="s">
-        <v>292</v>
-      </c>
-      <c r="I123" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124" t="s">
-        <v>269</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125" t="s">
+    <row r="127" spans="1:12">
+      <c r="A127" t="s">
         <v>270</v>
       </c>
-      <c r="B125">
-        <v>2</v>
-      </c>
-      <c r="E125" t="s">
-        <v>292</v>
-      </c>
-      <c r="J125" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126" t="s">
-        <v>271</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="D126" t="s">
-        <v>292</v>
-      </c>
-      <c r="I126" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127" t="s">
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>292</v>
+      </c>
+      <c r="J127" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" t="s">
         <v>272</v>
       </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
         <v>306</v>
       </c>
-      <c r="F127" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128" t="s">
-        <v>273</v>
-      </c>
-      <c r="B128">
-        <v>2</v>
-      </c>
       <c r="F128" t="s">
-        <v>292</v>
-      </c>
-      <c r="H128" t="s">
-        <v>292</v>
-      </c>
-      <c r="J128" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="K129" t="s">
-        <v>339</v>
+        <v>2</v>
+      </c>
+      <c r="F129" t="s">
+        <v>292</v>
+      </c>
+      <c r="H129" t="s">
+        <v>292</v>
+      </c>
+      <c r="J129" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -3392,58 +3415,112 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>342</v>
+      </c>
+      <c r="F132" t="s">
+        <v>292</v>
+      </c>
+      <c r="I132" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>335</v>
+      </c>
+      <c r="F133" t="s">
+        <v>292</v>
+      </c>
+      <c r="J133" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F134" t="s">
+        <v>292</v>
+      </c>
+      <c r="J134" t="s">
+        <v>292</v>
+      </c>
+      <c r="K134" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>304</v>
+        <v>329</v>
+      </c>
+      <c r="E135" t="s">
+        <v>292</v>
+      </c>
+      <c r="J135" t="s">
+        <v>292</v>
+      </c>
+      <c r="K135" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F136" t="s">
+        <v>292</v>
+      </c>
+      <c r="H136" t="s">
+        <v>292</v>
+      </c>
+      <c r="I136" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F137" t="s">
+        <v>292</v>
+      </c>
+      <c r="H137" t="s">
+        <v>292</v>
+      </c>
+      <c r="J137" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="B138">
         <v>3</v>
@@ -3451,44 +3528,38 @@
       <c r="F138" t="s">
         <v>292</v>
       </c>
-      <c r="H138" t="s">
-        <v>292</v>
-      </c>
       <c r="J138" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B139">
         <v>3</v>
       </c>
+      <c r="C139" t="s">
+        <v>337</v>
+      </c>
       <c r="F139" t="s">
         <v>292</v>
       </c>
-      <c r="H139" t="s">
-        <v>292</v>
-      </c>
       <c r="J139" t="s">
         <v>292</v>
-      </c>
-      <c r="K139" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B140">
         <v>3</v>
       </c>
-      <c r="C140" t="s">
-        <v>341</v>
-      </c>
       <c r="F140" t="s">
+        <v>292</v>
+      </c>
+      <c r="H140" t="s">
         <v>292</v>
       </c>
       <c r="J140" t="s">
@@ -3497,30 +3568,33 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B141">
-        <v>2</v>
-      </c>
-      <c r="C141" t="s">
-        <v>342</v>
+        <v>3</v>
       </c>
       <c r="F141" t="s">
         <v>292</v>
       </c>
-      <c r="I141" t="s">
-        <v>292</v>
+      <c r="H141" t="s">
+        <v>292</v>
+      </c>
+      <c r="J141" t="s">
+        <v>292</v>
+      </c>
+      <c r="K141" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F142" t="s">
         <v>292</v>
@@ -3531,6 +3605,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">

--- a/leetcode analysis.xlsx
+++ b/leetcode analysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="344">
   <si>
     <t>3Sum</t>
   </si>
@@ -1110,6 +1110,9 @@
   <si>
     <t>backtrack</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffix tree</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1125,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1213,27 +1215,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1246,31 +1228,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1637,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3365,7 +3327,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
         <v>273</v>
       </c>
@@ -3382,7 +3344,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>275</v>
       </c>
@@ -3399,7 +3361,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>276</v>
       </c>
@@ -3413,7 +3375,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>286</v>
       </c>
@@ -3430,7 +3392,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:12">
       <c r="A133" t="s">
         <v>287</v>
       </c>
@@ -3447,7 +3409,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
         <v>201</v>
       </c>
@@ -3463,8 +3425,11 @@
       <c r="K134" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="L134" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>209</v>
       </c>
@@ -3484,7 +3449,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
         <v>219</v>
       </c>
@@ -3501,7 +3466,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>220</v>
       </c>
@@ -3518,7 +3483,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
         <v>234</v>
       </c>
@@ -3532,7 +3497,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
         <v>289</v>
       </c>
@@ -3549,7 +3514,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
         <v>283</v>
       </c>
@@ -3566,7 +3531,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>284</v>
       </c>
@@ -3586,7 +3551,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:12">
       <c r="A142" t="s">
         <v>285</v>
       </c>
@@ -3606,13 +3571,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
